--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5BF88-967F-4357-9375-62985C5CF7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -215,9 +216,6 @@
     <t>SL 1-0-0</t>
   </si>
   <si>
-    <t>SL 3-0-0</t>
-  </si>
-  <si>
     <t>SL 2/18</t>
   </si>
   <si>
@@ -275,9 +273,6 @@
     <t>SL 6-0-0</t>
   </si>
   <si>
-    <t>SL 9/30-10/1-4</t>
-  </si>
-  <si>
     <t>SL 5/11</t>
   </si>
   <si>
@@ -323,25 +318,19 @@
     <t>UT(0-2-49)</t>
   </si>
   <si>
-    <t>10/3,4/2022</t>
-  </si>
-  <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>9/27-30/2022</t>
-  </si>
-  <si>
-    <t>A(1-0-0)</t>
+    <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+  </si>
+  <si>
+    <t>SL 9/27-10/1-4/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1016,7 +1005,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1033,26 +1022,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K86" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1359,34 +1348,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A78" activePane="bottomLeft"/>
-      <selection activeCell="G20" sqref="G20"/>
-      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
+      <pane ySplit="4008" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1387,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>94</v>
+      </c>
       <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -1407,19 +1398,19 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
@@ -1429,7 +1420,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1431,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>95</v>
+      </c>
       <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1449,7 +1442,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1457,7 +1450,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1470,7 +1463,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1487,7 +1480,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1531,7 +1524,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.6060000000000016</v>
+        <v>20.605999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1541,12 +1534,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>20.957999999999998</v>
+        <v>27.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1568,7 +1561,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1588,7 +1581,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1612,7 +1605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1625,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1652,7 +1645,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1672,7 +1665,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1692,7 +1685,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1712,7 +1705,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1732,7 +1725,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1754,7 +1747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1774,7 +1767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1792,7 +1785,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1812,7 +1805,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1834,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1852,7 +1845,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1876,7 +1869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1898,7 +1891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1916,7 +1909,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1934,20 +1927,22 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -1956,9 +1951,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C30" s="13">
         <v>1.25</v>
       </c>
@@ -1969,15 +1968,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
-        <v>44228</v>
-      </c>
+      <c r="K30" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>59</v>
       </c>
@@ -1995,13 +1996,13 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -2012,58 +2013,58 @@
         <v/>
       </c>
       <c r="H32" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="13"/>
+      <c r="K32" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="39">
-        <v>1</v>
-      </c>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="39">
-        <v>1</v>
-      </c>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="39"/>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>44317</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -2080,30 +2081,32 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>44287</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D36" s="39"/>
+        <v>44348</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39">
+        <v>12</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>44317</v>
-      </c>
+      <c r="K36" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -2120,96 +2123,94 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="39">
-        <v>12</v>
-      </c>
+      <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>5</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="39"/>
+      <c r="B39" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="13"/>
+      <c r="K39" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="39">
-        <v>5</v>
-      </c>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="39">
-        <v>1</v>
-      </c>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="40">
+        <v>44440</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -2226,30 +2227,32 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="39"/>
+        <v>44470</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39">
+        <v>1</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
-        <v>44440</v>
-      </c>
+      <c r="K43" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -2266,16 +2269,16 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
@@ -2286,11 +2289,11 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2308,115 +2311,113 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B48" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D49" s="39">
-        <v>1</v>
-      </c>
+      <c r="K48" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="13"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>73</v>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>44593</v>
       </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -2434,30 +2435,32 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39"/>
+        <v>44652</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39">
+        <v>1</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
-        <v>44621</v>
-      </c>
+      <c r="K53" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -2474,31 +2477,31 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="39">
-        <v>1</v>
-      </c>
+      <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>1</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2516,20 +2519,22 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="39">
         <v>1</v>
@@ -2537,57 +2542,53 @@
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B58" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>44713</v>
-      </c>
+      <c r="K58" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="13">
-        <v>1.25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C59" s="13"/>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="39">
-        <v>1</v>
-      </c>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -2597,17 +2598,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="K60" s="51">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>44743</v>
+      </c>
       <c r="B61" s="20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -2617,62 +2622,60 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>1</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
+      <c r="K61" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
-      <c r="B62" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="39">
-        <v>1</v>
-      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="51">
-        <v>44726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="13"/>
+        <v>44774</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="39">
-        <v>1</v>
-      </c>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="50" t="s">
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
@@ -2683,61 +2686,63 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>6</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K64" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
+      <c r="B65" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H65" s="39"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="39">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="K65" s="51">
         <v>44805</v>
       </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39">
+        <v>1</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="39">
-        <v>6</v>
-      </c>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="51">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -2753,260 +2758,264 @@
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="51">
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>44835</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39">
         <v>1</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="51">
-        <v>44820</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <v>44866</v>
+      </c>
       <c r="B69" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="39">
+        <v>1</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="39">
-        <v>1</v>
-      </c>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="51">
-        <v>44824</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>44896</v>
+      </c>
       <c r="B70" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="39">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="39"/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="39">
+        <v>1</v>
+      </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>44835</v>
-      </c>
+      <c r="K70" s="51">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C71" s="13"/>
       <c r="D71" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="51">
-        <v>44852</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="39">
-        <v>2</v>
-      </c>
+      <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H72" s="39"/>
+      <c r="H72" s="39">
+        <v>1</v>
+      </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>44866</v>
-      </c>
+      <c r="K72" s="51">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1.25</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="39">
-        <v>1</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="51">
-        <v>44867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K73" s="51"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="39">
-        <v>1</v>
-      </c>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="51">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>44927</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="13"/>
+      <c r="K75" s="51">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39">
-        <v>1</v>
-      </c>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="51">
-        <v>44910</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="39">
-        <v>0.35199999999999998</v>
-      </c>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="51"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="K77" s="20"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39">
+        <v>5</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44927</v>
+        <v>45047</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>88</v>
@@ -3015,7 +3024,7 @@
         <v>1.25</v>
       </c>
       <c r="D79" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -3026,35 +3035,39 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="51">
-        <v>44959</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K79" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="51">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B81" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -3065,67 +3078,65 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45017</v>
-      </c>
+      <c r="K81" s="51">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D82" s="39">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="51">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39">
-        <v>2</v>
-      </c>
+      <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="51">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3141,15 +3152,13 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="51">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>45078</v>
-      </c>
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3165,1002 +3174,34 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="51">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45139</v>
+      </c>
       <c r="B86" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+        <v>86</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39">
+        <v>1</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="51">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39">
-        <v>1</v>
-      </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="51">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39">
-        <v>1</v>
-      </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="51">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39">
-        <v>1</v>
-      </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="51">
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="39"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>46143</v>
-      </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>46174</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>46204</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>46235</v>
-      </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>46266</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>46296</v>
-      </c>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>46327</v>
-      </c>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>46357</v>
-      </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>46388</v>
-      </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40">
-        <v>46419</v>
-      </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40">
-        <v>46447</v>
-      </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40">
-        <v>46478</v>
-      </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="39"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="39"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="39"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="39"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H138" s="39"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="20"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="39"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="20"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="43"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+        <v>45146</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4177,15 +3218,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -4193,8 +3234,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                              OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4203,28 +3244,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -4237,7 +3278,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4266,7 +3307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4292,17 +3333,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4323,7 +3364,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4350,7 +3391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4376,7 +3417,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4402,7 +3443,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4428,7 +3469,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4454,7 +3495,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4480,7 +3521,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4506,7 +3547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4532,7 +3573,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4552,7 +3593,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4572,7 +3613,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4592,7 +3633,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4613,7 +3654,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4634,7 +3675,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4655,7 +3696,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4676,7 +3717,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4697,7 +3738,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4718,7 +3759,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4739,7 +3780,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4760,7 +3801,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4781,7 +3822,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4802,7 +3843,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4823,7 +3864,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4844,7 +3885,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4865,7 +3906,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4886,7 +3927,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4907,7 +3948,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4928,7 +3969,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4949,7 +3990,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4970,7 +4011,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4991,7 +4032,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5012,7 +4053,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5021,7 +4062,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5030,7 +4071,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5039,7 +4080,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5048,7 +4089,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5057,7 +4098,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5066,7 +4107,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5075,7 +4116,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5084,7 +4125,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5093,7 +4134,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5102,7 +4143,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5111,7 +4152,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5120,7 +4161,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5129,7 +4170,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5138,7 +4179,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5147,7 +4188,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5156,7 +4197,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5165,7 +4206,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5174,7 +4215,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5183,7 +4224,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5192,7 +4233,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5201,7 +4242,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5210,7 +4251,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5219,7 +4260,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5228,7 +4269,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5237,7 +4278,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5246,7 +4287,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5255,7 +4296,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5264,7 +4305,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5273,7 +4314,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF5BB0-462D-4611-8832-9F4C80C5FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,12 +325,15 @@
   </si>
   <si>
     <t>SL 9/27-10/1-4/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1004,7 +1008,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1021,26 +1025,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K103" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K104" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1347,34 +1351,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K103"/>
+  <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4008" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1401,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1423,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1445,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1449,7 +1453,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1462,7 +1466,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1479,7 +1483,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1523,7 +1527,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.105999999999995</v>
+        <v>25.605999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1533,12 +1537,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>28.457999999999998</v>
+        <v>29.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1564,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1580,7 +1584,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1624,7 +1628,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1644,7 +1648,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1664,7 +1668,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1684,7 +1688,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1704,7 +1708,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1724,7 +1728,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1766,7 +1770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1784,7 +1788,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1804,7 +1808,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1844,7 +1848,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1890,7 +1894,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1908,7 +1912,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1926,7 +1930,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44228</v>
       </c>
@@ -1976,7 +1980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>59</v>
@@ -1998,7 +2002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -2020,7 +2024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -2060,7 +2064,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -2122,7 +2126,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -2168,7 +2172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2186,7 +2190,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -2206,7 +2210,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -2226,7 +2230,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -2268,7 +2272,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -2292,7 +2296,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2310,7 +2314,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44531</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -2356,7 +2360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>72</v>
       </c>
@@ -2374,7 +2378,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44562</v>
       </c>
@@ -2394,7 +2398,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44593</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44621</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44652</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -2476,7 +2480,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44682</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2518,7 +2522,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44713</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2564,7 +2568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -2584,7 +2588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -2606,7 +2610,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -2648,7 +2652,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44774</v>
       </c>
@@ -2668,7 +2672,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44805</v>
       </c>
@@ -2694,7 +2698,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -2716,7 +2720,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>86</v>
@@ -2738,7 +2742,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -2760,7 +2764,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44835</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44866</v>
       </c>
@@ -2812,7 +2816,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44896</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -2860,7 +2864,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>85</v>
@@ -2882,7 +2886,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -2902,7 +2906,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>84</v>
       </c>
@@ -2920,7 +2924,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2966,7 +2970,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44986</v>
       </c>
@@ -2986,7 +2990,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45017</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45047</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>85</v>
@@ -3060,7 +3064,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>92</v>
@@ -3106,7 +3110,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>85</v>
@@ -3154,7 +3158,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>85</v>
@@ -3176,7 +3180,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
@@ -3222,7 +3226,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45200</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3268,7 +3272,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>85</v>
@@ -3290,45 +3294,49 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45231</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45261</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45292</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3344,11 +3352,13 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B94" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
@@ -3357,14 +3367,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="51">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3380,9 +3394,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3398,9 +3412,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3416,9 +3430,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3434,9 +3448,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3452,9 +3466,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3470,9 +3484,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3488,9 +3502,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3506,9 +3520,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3523,6 +3537,24 @@
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="39"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3539,10 +3571,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3565,28 +3597,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3599,7 +3631,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3628,7 +3660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3654,17 +3686,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3685,7 +3717,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3712,7 +3744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3738,7 +3770,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3764,7 +3796,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3790,7 +3822,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3816,7 +3848,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3842,7 +3874,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3868,7 +3900,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3894,7 +3926,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3914,7 +3946,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3934,7 +3966,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3954,7 +3986,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -3975,7 +4007,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -3996,7 +4028,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4017,7 +4049,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4038,7 +4070,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4059,7 +4091,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4080,7 +4112,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4101,7 +4133,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4122,7 +4154,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4143,7 +4175,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4164,7 +4196,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4185,7 +4217,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4206,7 +4238,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4227,7 +4259,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4248,7 +4280,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4269,7 +4301,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4290,7 +4322,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4311,7 +4343,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4332,7 +4364,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4353,7 +4385,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4374,7 +4406,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4383,7 +4415,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4392,7 +4424,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4401,7 +4433,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4410,7 +4442,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4419,7 +4451,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4428,7 +4460,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4437,7 +4469,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4446,7 +4478,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4455,7 +4487,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4464,7 +4496,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4473,7 +4505,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4482,7 +4514,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4491,7 +4523,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4500,7 +4532,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4509,7 +4541,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4518,7 +4550,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4527,7 +4559,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4536,7 +4568,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4545,7 +4577,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4554,7 +4586,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4563,7 +4595,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4572,7 +4604,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4581,7 +4613,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4590,7 +4622,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4599,7 +4631,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4608,7 +4640,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4617,7 +4649,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4626,7 +4658,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4635,7 +4667,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF5BB0-462D-4611-8832-9F4C80C5FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -333,7 +332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1008,7 +1007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1025,26 +1024,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K104" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K105" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K105"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1351,34 +1350,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K104"/>
+  <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4008" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1400,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1422,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1444,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1453,7 +1452,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1466,7 +1465,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1483,7 +1482,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1527,7 +1526,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25.605999999999995</v>
+        <v>24.605999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1542,7 +1541,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +1563,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1584,7 +1583,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1608,7 +1607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1628,7 +1627,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1668,7 +1667,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1688,7 +1687,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1708,7 +1707,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1728,7 +1727,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1770,7 +1769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1788,7 +1787,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1808,7 +1807,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1848,7 +1847,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1894,7 +1893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1912,7 +1911,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44228</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>59</v>
@@ -2002,7 +2001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -2024,7 +2023,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -2044,7 +2043,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -2064,7 +2063,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -2084,7 +2083,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -2126,7 +2125,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -2172,7 +2171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2190,7 +2189,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -2210,7 +2209,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -2230,7 +2229,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -2272,7 +2271,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2314,7 +2313,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44531</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -2360,7 +2359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>72</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44562</v>
       </c>
@@ -2398,7 +2397,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44593</v>
       </c>
@@ -2418,7 +2417,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44621</v>
       </c>
@@ -2438,7 +2437,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44652</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -2480,7 +2479,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44682</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2522,7 +2521,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44713</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2568,7 +2567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -2588,7 +2587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -2610,7 +2609,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -2652,7 +2651,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44774</v>
       </c>
@@ -2672,7 +2671,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44805</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -2720,7 +2719,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>86</v>
@@ -2742,7 +2741,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -2764,7 +2763,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44835</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44866</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44896</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -2864,7 +2863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>85</v>
@@ -2886,7 +2885,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -2906,7 +2905,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>84</v>
       </c>
@@ -2924,7 +2923,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44958</v>
       </c>
@@ -2970,7 +2969,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44986</v>
       </c>
@@ -2990,7 +2989,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45017</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45047</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>85</v>
@@ -3064,7 +3063,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>92</v>
@@ -3110,7 +3109,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>85</v>
@@ -3158,7 +3157,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>85</v>
@@ -3180,7 +3179,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
@@ -3226,7 +3225,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45200</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3272,7 +3271,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>85</v>
@@ -3294,7 +3293,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45231</v>
       </c>
@@ -3314,7 +3313,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45261</v>
       </c>
@@ -3334,7 +3333,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>97</v>
       </c>
@@ -3352,7 +3351,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45322</v>
       </c>
@@ -3373,16 +3372,18 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="51">
-        <v>44930</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>1</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -3392,11 +3393,13 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="51">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3412,9 +3415,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3430,9 +3433,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3448,9 +3451,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3466,9 +3469,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3484,9 +3487,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3502,9 +3505,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3520,9 +3523,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3538,9 +3541,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3555,6 +3558,24 @@
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="39"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3571,10 +3592,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3597,28 +3618,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3631,7 +3652,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3660,7 +3681,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3686,17 +3707,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3717,7 +3738,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3744,7 +3765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3770,7 +3791,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3796,7 +3817,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3822,7 +3843,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3848,7 +3869,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3874,7 +3895,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3900,7 +3921,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3926,7 +3947,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -3946,7 +3967,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -3966,7 +3987,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -3986,7 +4007,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4007,7 +4028,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4028,7 +4049,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4049,7 +4070,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4070,7 +4091,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4091,7 +4112,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4112,7 +4133,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4133,7 +4154,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4154,7 +4175,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4175,7 +4196,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4196,7 +4217,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4217,7 +4238,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4238,7 +4259,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4259,7 +4280,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4280,7 +4301,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4301,7 +4322,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4322,7 +4343,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4343,7 +4364,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4364,7 +4385,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4385,7 +4406,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4406,7 +4427,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4415,7 +4436,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4424,7 +4445,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4433,7 +4454,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4442,7 +4463,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4451,7 +4472,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4460,7 +4481,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4469,7 +4490,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4478,7 +4499,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4487,7 +4508,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4496,7 +4517,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4505,7 +4526,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4514,7 +4535,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4523,7 +4544,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4532,7 +4553,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4541,7 +4562,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4550,7 +4571,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4559,7 +4580,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4568,7 +4589,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4577,7 +4598,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4586,7 +4607,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4595,7 +4616,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4604,7 +4625,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4613,7 +4634,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4622,7 +4643,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4631,7 +4652,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4640,7 +4661,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4649,7 +4670,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4658,7 +4679,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4667,7 +4688,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-7)</t>
   </si>
 </sst>
 </file>
@@ -1357,9 +1360,9 @@
   <dimension ref="A2:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1529,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.605999999999995</v>
+        <v>24.590999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3297,11 +3300,15 @@
       <c r="A91" s="40">
         <v>45231</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
@@ -3685,15 +3692,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.35199999999999998</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>UT(0-1-30)</t>
+  </si>
+  <si>
+    <t>UT(0-3-49)</t>
+  </si>
+  <si>
+    <t>UT(1-5-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-58)</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K105" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K111" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K111"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1357,12 +1381,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K105"/>
+  <dimension ref="A2:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="4005" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1553,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.590999999999994</v>
+        <v>20.873000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2953,57 +2977,59 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="51">
+        <v>44932</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39">
+        <v>0.371</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="51"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
       <c r="D78" s="39">
-        <v>5</v>
+        <v>0.04</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
@@ -3014,22 +3040,20 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
       <c r="D79" s="39">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -3040,62 +3064,64 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45017</v>
+      </c>
       <c r="B80" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+        <v>89</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39">
+        <v>5</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39">
-        <v>1</v>
-      </c>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="51">
-        <v>45041</v>
+      <c r="K80" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="39">
-        <v>1</v>
-      </c>
+      <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="51">
-        <v>45082</v>
+      <c r="K81" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -3105,51 +3131,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="51">
-        <v>45107</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D83" s="39"/>
+        <v>102</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39">
+        <v>0.47699999999999998</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="51">
-        <v>45117</v>
-      </c>
+      <c r="K83" s="51"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45078</v>
+      </c>
       <c r="B84" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39">
         <v>1</v>
@@ -3157,13 +3183,13 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="51">
-        <v>45121</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3173,46 +3199,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39">
-        <v>1</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="51">
-        <v>45125</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39">
-        <v>1</v>
+        <v>0.18700000000000003</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="51">
-        <v>45146</v>
-      </c>
+      <c r="K86" s="51"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B87" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
@@ -3223,33 +3243,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="51">
+        <v>45117</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="51">
-        <v>45221</v>
+        <v>45121</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3271,43 +3293,41 @@
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="51">
-        <v>45230</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39">
-        <v>1</v>
-      </c>
+      <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="51">
-        <v>45222</v>
-      </c>
+      <c r="K90" s="51"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
       <c r="D91" s="39">
-        <v>1.4999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -3318,40 +3338,44 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="51">
+        <v>45146</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D92" s="39"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="51"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="48" t="s">
-        <v>97</v>
+      <c r="A93" s="40">
+        <v>45170</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3360,55 +3384,55 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45322</v>
+        <v>45200</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="51">
-        <v>45295</v>
+        <v>45221</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39">
-        <v>1</v>
-      </c>
+      <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H95" s="39"/>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="51">
-        <v>45303</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -3417,23 +3441,33 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="51">
+        <v>45222</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D97" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -3442,16 +3476,18 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45412</v>
+        <v>45261</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -3459,8 +3495,8 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>45443</v>
+      <c r="A99" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3478,9 +3514,11 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B100" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
@@ -3489,18 +3527,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="39"/>
+      <c r="H100" s="39">
+        <v>1</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="51">
+        <v>45295</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45504</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>1</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -3510,11 +3554,13 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="51">
+        <v>45303</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45535</v>
+        <v>45351</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3532,7 +3578,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45565</v>
+        <v>45382</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3550,7 +3596,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45596</v>
+        <v>45412</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3568,7 +3614,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45626</v>
+        <v>45443</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3583,6 +3629,114 @@
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="39"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3692,13 +3846,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.371</v>
       </c>
       <c r="J3" s="47">
         <v>2</v>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AEA059-1E2F-4C6B-B103-EE45866040E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -359,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1034,7 +1035,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1051,26 +1052,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K111" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1377,34 +1378,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K111"/>
+  <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4005" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4008" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1428,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1472,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1479,7 +1480,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1492,7 +1493,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -1509,7 +1510,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1553,7 +1554,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.873000000000005</v>
+        <v>22.123000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1563,12 +1564,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29.957999999999998</v>
+        <v>30.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1590,7 +1591,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43832</v>
       </c>
@@ -1610,7 +1611,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43862</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>46</v>
       </c>
@@ -1654,7 +1655,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43922</v>
       </c>
@@ -1674,7 +1675,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43952</v>
       </c>
@@ -1694,7 +1695,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43983</v>
       </c>
@@ -1714,7 +1715,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44013</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44044</v>
       </c>
@@ -1754,7 +1755,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44075</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1796,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13">
@@ -1814,7 +1815,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44105</v>
       </c>
@@ -1834,7 +1835,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44136</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -1874,7 +1875,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44166</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>52</v>
@@ -1920,7 +1921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -1938,7 +1939,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>55</v>
       </c>
@@ -1956,7 +1957,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44197</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44228</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>59</v>
@@ -2028,7 +2029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>59</v>
@@ -2050,7 +2051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -2070,7 +2071,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -2090,7 +2091,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -2110,7 +2111,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -2152,7 +2153,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44378</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -2198,7 +2199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13">
@@ -2216,7 +2217,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -2236,7 +2237,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -2256,7 +2257,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -2298,7 +2299,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -2340,7 +2341,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44531</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>70</v>
@@ -2386,7 +2387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>72</v>
       </c>
@@ -2404,7 +2405,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44562</v>
       </c>
@@ -2424,7 +2425,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44593</v>
       </c>
@@ -2444,7 +2445,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44621</v>
       </c>
@@ -2464,7 +2465,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44652</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -2506,7 +2507,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44682</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -2548,7 +2549,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44713</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>47</v>
@@ -2594,7 +2595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -2614,7 +2615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>85</v>
@@ -2636,7 +2637,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -2678,7 +2679,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44774</v>
       </c>
@@ -2698,7 +2699,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44805</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -2746,7 +2747,7 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>86</v>
@@ -2768,7 +2769,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -2790,7 +2791,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44835</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44866</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44896</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -2890,7 +2891,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>85</v>
@@ -2912,7 +2913,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -2932,7 +2933,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>84</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44927</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>105</v>
@@ -2998,7 +2999,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>106</v>
@@ -3018,7 +3019,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="51"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
@@ -3066,7 +3067,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>85</v>
@@ -3140,7 +3141,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>102</v>
@@ -3160,7 +3161,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="51"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45078</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>92</v>
@@ -3206,7 +3207,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>101</v>
@@ -3226,7 +3227,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="51"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45108</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>85</v>
@@ -3274,7 +3275,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>85</v>
@@ -3296,7 +3297,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>100</v>
@@ -3316,7 +3317,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="51"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45139</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>99</v>
@@ -3362,7 +3363,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="51"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45170</v>
       </c>
@@ -3382,7 +3383,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45200</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>85</v>
@@ -3428,7 +3429,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>85</v>
@@ -3450,7 +3451,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45231</v>
       </c>
@@ -3474,7 +3475,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45261</v>
       </c>
@@ -3494,7 +3495,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>97</v>
       </c>
@@ -3512,20 +3513,22 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45322</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39">
         <v>1</v>
@@ -3536,7 +3539,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>86</v>
@@ -3558,11 +3561,11 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B102" s="20"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3571,14 +3574,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="51">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3594,9 +3601,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3612,9 +3619,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3630,9 +3637,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3648,9 +3655,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3666,9 +3673,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3684,9 +3691,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3702,9 +3709,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3720,9 +3727,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3737,6 +3744,24 @@
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3753,10 +3778,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3779,28 +3804,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -3813,7 +3838,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3842,7 +3867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3868,17 +3893,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3899,7 +3924,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3926,7 +3951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3952,7 +3977,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3978,7 +4003,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4004,7 +4029,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4030,7 +4055,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4056,7 +4081,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4082,7 +4107,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4108,7 +4133,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4128,7 +4153,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4148,7 +4173,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4168,7 +4193,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4189,7 +4214,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4231,7 +4256,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4252,7 +4277,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4273,7 +4298,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4294,7 +4319,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4315,7 +4340,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4336,7 +4361,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4357,7 +4382,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4378,7 +4403,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4399,7 +4424,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4420,7 +4445,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4441,7 +4466,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4462,7 +4487,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4483,7 +4508,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4504,7 +4529,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4525,7 +4550,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4546,7 +4571,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4567,7 +4592,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4588,7 +4613,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4597,7 +4622,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4606,7 +4631,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4615,7 +4640,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4624,7 +4649,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4633,7 +4658,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4642,7 +4667,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4651,7 +4676,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4660,7 +4685,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4669,7 +4694,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4678,7 +4703,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4687,7 +4712,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4696,7 +4721,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4705,7 +4730,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4714,7 +4739,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4723,7 +4748,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4732,7 +4757,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4741,7 +4766,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4750,7 +4775,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4759,7 +4784,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4768,7 +4793,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4777,7 +4802,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4786,7 +4811,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4795,7 +4820,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4804,7 +4829,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4813,7 +4838,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4822,7 +4847,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4831,7 +4856,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4840,7 +4865,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4849,7 +4874,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AEA059-1E2F-4C6B-B103-EE45866040E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E34167-D813-48CE-A955-C5EAC53F9803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +402,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +782,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,9 +1399,9 @@
   <dimension ref="A2:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="4008" topLeftCell="A97" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="4008" topLeftCell="A96" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1566,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="13">
+      <c r="E9" s="64">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>22.123000000000005</v>
       </c>
@@ -1562,7 +1576,7 @@
         <v/>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="13">
+      <c r="I9" s="64">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>30.207999999999998</v>
       </c>
@@ -1600,14 +1614,20 @@
         <v>1.208</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="63">
+        <f>SUM(C11,E10)-D11</f>
+        <v>1.208</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.208</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="63">
+        <f>SUM(G11,I10)-H11</f>
+        <v>1.208</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
@@ -1622,14 +1642,20 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="63">
+        <f t="shared" ref="E12:E75" si="0">SUM(C12,E11)-D12</f>
+        <v>2.4580000000000002</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="63">
+        <f t="shared" ref="I12:I75" si="1">SUM(G12,I11)-H12</f>
+        <v>2.4580000000000002</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="49" t="s">
         <v>45</v>
@@ -1644,14 +1670,20 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="63">
+        <f t="shared" si="0"/>
+        <v>3.7080000000000002</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="63">
+        <f t="shared" si="1"/>
+        <v>3.7080000000000002</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
@@ -1664,14 +1696,20 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="63">
+        <f t="shared" si="0"/>
+        <v>4.9580000000000002</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="63">
+        <f t="shared" si="1"/>
+        <v>4.9580000000000002</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
@@ -1684,14 +1722,20 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="63">
+        <f t="shared" si="0"/>
+        <v>6.2080000000000002</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="63">
+        <f t="shared" si="1"/>
+        <v>6.2080000000000002</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
@@ -1704,14 +1748,20 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="63">
+        <f t="shared" si="0"/>
+        <v>7.4580000000000002</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="63">
+        <f t="shared" si="1"/>
+        <v>7.4580000000000002</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
@@ -1724,14 +1774,20 @@
         <v>1.25</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="63">
+        <f t="shared" si="0"/>
+        <v>8.7080000000000002</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="63">
+        <f t="shared" si="1"/>
+        <v>8.7080000000000002</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
@@ -1744,14 +1800,20 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="63">
+        <f t="shared" si="0"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="63">
+        <f t="shared" si="1"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
@@ -1764,14 +1826,20 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="63">
+        <f t="shared" si="0"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="63">
+        <f t="shared" si="1"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
         <v>49</v>
@@ -1784,14 +1852,20 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="63">
+        <f t="shared" si="0"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="63">
+        <f t="shared" si="1"/>
+        <v>9.9580000000000002</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
         <v>50</v>
@@ -1804,14 +1878,20 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="63">
+        <f t="shared" si="0"/>
+        <v>11.208</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="63">
+        <f t="shared" si="1"/>
+        <v>11.208</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
@@ -1824,14 +1904,20 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="63">
+        <f t="shared" si="0"/>
+        <v>12.458</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="63">
+        <f t="shared" si="1"/>
+        <v>12.458</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
@@ -1844,14 +1930,20 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="63">
+        <f t="shared" si="0"/>
+        <v>12.458</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="63">
+        <f t="shared" si="1"/>
+        <v>12.458</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
         <v>51</v>
@@ -1864,14 +1956,20 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="63">
+        <f t="shared" si="0"/>
+        <v>13.708</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="63">
+        <f t="shared" si="1"/>
+        <v>13.708</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
@@ -1886,14 +1984,20 @@
       <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="63">
+        <f t="shared" si="0"/>
+        <v>12.708</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="63">
+        <f t="shared" si="1"/>
+        <v>13.708</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
         <v>53</v>
@@ -1908,14 +2012,20 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="63">
+        <f t="shared" si="0"/>
+        <v>11.708</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="63">
+        <f t="shared" si="1"/>
+        <v>13.708</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="50" t="s">
         <v>54</v>
@@ -1928,14 +2038,20 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="63">
+        <f t="shared" si="0"/>
+        <v>12.958</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="63">
+        <f t="shared" si="1"/>
+        <v>14.958</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
@@ -1946,14 +2062,20 @@
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="63">
+        <f t="shared" si="0"/>
+        <v>12.958</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="63">
+        <f t="shared" si="1"/>
+        <v>14.958</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
@@ -1968,14 +2090,20 @@
         <v>1.25</v>
       </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="63">
+        <f t="shared" si="0"/>
+        <v>14.208</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="63">
+        <f t="shared" si="1"/>
+        <v>16.207999999999998</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
         <v>57</v>
@@ -1992,7 +2120,10 @@
         <v>1.25</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="63">
+        <f t="shared" si="0"/>
+        <v>15.458</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2001,7 +2132,10 @@
       <c r="H30" s="39">
         <v>1</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="63">
+        <f t="shared" si="1"/>
+        <v>16.457999999999998</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
         <v>58</v>
@@ -2014,7 +2148,10 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="63">
+        <f t="shared" si="0"/>
+        <v>15.458</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2023,7 +2160,10 @@
       <c r="H31" s="39">
         <v>1</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="63">
+        <f t="shared" si="1"/>
+        <v>15.457999999999998</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
         <v>60</v>
@@ -2036,7 +2176,10 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="63">
+        <f t="shared" si="0"/>
+        <v>15.458</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2045,7 +2188,10 @@
       <c r="H32" s="39">
         <v>1</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="63">
+        <f t="shared" si="1"/>
+        <v>14.457999999999998</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="20" t="s">
         <v>61</v>
@@ -2060,14 +2206,20 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="63">
+        <f t="shared" si="0"/>
+        <v>16.707999999999998</v>
+      </c>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="63">
+        <f t="shared" si="1"/>
+        <v>15.707999999999998</v>
+      </c>
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
@@ -2080,14 +2232,20 @@
         <v>1.25</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="63">
+        <f t="shared" si="0"/>
+        <v>17.957999999999998</v>
+      </c>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="63">
+        <f t="shared" si="1"/>
+        <v>16.957999999999998</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
@@ -2100,14 +2258,20 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="39"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="63">
+        <f t="shared" si="0"/>
+        <v>19.207999999999998</v>
+      </c>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="63">
+        <f t="shared" si="1"/>
+        <v>18.207999999999998</v>
+      </c>
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
@@ -2122,14 +2286,20 @@
       <c r="D36" s="39">
         <v>12</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="63">
+        <f t="shared" si="0"/>
+        <v>7.2079999999999984</v>
+      </c>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="63">
+        <f t="shared" si="1"/>
+        <v>18.207999999999998</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
         <v>63</v>
@@ -2142,14 +2312,20 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="63">
+        <f t="shared" si="0"/>
+        <v>8.4579999999999984</v>
+      </c>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="63">
+        <f t="shared" si="1"/>
+        <v>19.457999999999998</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
@@ -2162,7 +2338,10 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="63">
+        <f t="shared" si="0"/>
+        <v>8.4579999999999984</v>
+      </c>
       <c r="F38" s="20"/>
       <c r="G38" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2171,7 +2350,10 @@
       <c r="H38" s="39">
         <v>5</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="63">
+        <f t="shared" si="1"/>
+        <v>14.457999999999998</v>
+      </c>
       <c r="J38" s="11"/>
       <c r="K38" s="20" t="s">
         <v>65</v>
@@ -2186,14 +2368,20 @@
       <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="63">
+        <f t="shared" si="0"/>
+        <v>7.4579999999999984</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="63">
+        <f t="shared" si="1"/>
+        <v>14.457999999999998</v>
+      </c>
       <c r="J39" s="11"/>
       <c r="K39" s="20" t="s">
         <v>66</v>
@@ -2206,14 +2394,20 @@
         <v>1.25</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="63">
+        <f t="shared" si="0"/>
+        <v>8.7079999999999984</v>
+      </c>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="63">
+        <f t="shared" si="1"/>
+        <v>15.707999999999998</v>
+      </c>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
@@ -2226,14 +2420,20 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="63">
+        <f t="shared" si="0"/>
+        <v>9.9579999999999984</v>
+      </c>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="63">
+        <f t="shared" si="1"/>
+        <v>16.957999999999998</v>
+      </c>
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
@@ -2246,14 +2446,20 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="63">
+        <f t="shared" si="0"/>
+        <v>11.207999999999998</v>
+      </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="63">
+        <f t="shared" si="1"/>
+        <v>18.207999999999998</v>
+      </c>
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
@@ -2268,14 +2474,20 @@
       <c r="D43" s="39">
         <v>1</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="63">
+        <f t="shared" si="0"/>
+        <v>10.207999999999998</v>
+      </c>
       <c r="F43" s="20"/>
       <c r="G43" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="63">
+        <f t="shared" si="1"/>
+        <v>18.207999999999998</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="50" t="s">
         <v>67</v>
@@ -2288,14 +2500,20 @@
         <v>1.25</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="63">
+        <f t="shared" si="0"/>
+        <v>11.457999999999998</v>
+      </c>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="63">
+        <f t="shared" si="1"/>
+        <v>19.457999999999998</v>
+      </c>
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
@@ -2310,14 +2528,20 @@
       <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="63">
+        <f t="shared" si="0"/>
+        <v>9.4579999999999984</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H45" s="39"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="63">
+        <f t="shared" si="1"/>
+        <v>19.457999999999998</v>
+      </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
         <v>80</v>
@@ -2330,14 +2554,20 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="63">
+        <f t="shared" si="0"/>
+        <v>10.707999999999998</v>
+      </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="63">
+        <f t="shared" si="1"/>
+        <v>20.707999999999998</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
@@ -2354,14 +2584,20 @@
       <c r="D47" s="39">
         <v>1</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="63">
+        <f t="shared" si="0"/>
+        <v>10.957999999999998</v>
+      </c>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="63">
+        <f t="shared" si="1"/>
+        <v>21.957999999999998</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="50" t="s">
         <v>69</v>
@@ -2374,14 +2610,20 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="63">
+        <f t="shared" si="0"/>
+        <v>10.957999999999998</v>
+      </c>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="63">
+        <f t="shared" si="1"/>
+        <v>21.957999999999998</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
         <v>71</v>
@@ -2394,14 +2636,20 @@
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="63">
+        <f t="shared" si="0"/>
+        <v>10.957999999999998</v>
+      </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="39"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="63">
+        <f t="shared" si="1"/>
+        <v>21.957999999999998</v>
+      </c>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
@@ -2414,14 +2662,20 @@
         <v>1.25</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="63">
+        <f t="shared" si="0"/>
+        <v>12.207999999999998</v>
+      </c>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="63">
+        <f t="shared" si="1"/>
+        <v>23.207999999999998</v>
+      </c>
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
@@ -2434,14 +2688,20 @@
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="63">
+        <f t="shared" si="0"/>
+        <v>13.457999999999998</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="63">
+        <f t="shared" si="1"/>
+        <v>24.457999999999998</v>
+      </c>
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
@@ -2454,14 +2714,20 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="63">
+        <f t="shared" si="0"/>
+        <v>14.707999999999998</v>
+      </c>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="63">
+        <f t="shared" si="1"/>
+        <v>25.707999999999998</v>
+      </c>
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
@@ -2476,14 +2742,20 @@
       <c r="D53" s="39">
         <v>1</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="63">
+        <f t="shared" si="0"/>
+        <v>13.707999999999998</v>
+      </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H53" s="39"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="63">
+        <f t="shared" si="1"/>
+        <v>25.707999999999998</v>
+      </c>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
         <v>81</v>
@@ -2496,14 +2768,20 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="63">
+        <f t="shared" si="0"/>
+        <v>14.957999999999998</v>
+      </c>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="63">
+        <f t="shared" si="1"/>
+        <v>26.957999999999998</v>
+      </c>
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
@@ -2516,7 +2794,10 @@
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="63">
+        <f t="shared" si="0"/>
+        <v>14.957999999999998</v>
+      </c>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2525,7 +2806,10 @@
       <c r="H55" s="39">
         <v>1</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="63">
+        <f t="shared" si="1"/>
+        <v>25.957999999999998</v>
+      </c>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
         <v>79</v>
@@ -2538,14 +2822,20 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="63">
+        <f t="shared" si="0"/>
+        <v>16.207999999999998</v>
+      </c>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="63">
+        <f t="shared" si="1"/>
+        <v>27.207999999999998</v>
+      </c>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
@@ -2560,7 +2850,10 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="63">
+        <f t="shared" si="0"/>
+        <v>17.457999999999998</v>
+      </c>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2569,7 +2862,10 @@
       <c r="H57" s="39">
         <v>1</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="63">
+        <f t="shared" si="1"/>
+        <v>27.457999999999998</v>
+      </c>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
         <v>73</v>
@@ -2582,14 +2878,20 @@
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="63">
+        <f t="shared" si="0"/>
+        <v>17.457999999999998</v>
+      </c>
       <c r="F58" s="20"/>
       <c r="G58" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H58" s="39"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="63">
+        <f t="shared" si="1"/>
+        <v>27.457999999999998</v>
+      </c>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
         <v>74</v>
@@ -2602,14 +2904,20 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="63">
+        <f t="shared" si="0"/>
+        <v>17.457999999999998</v>
+      </c>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="63">
+        <f t="shared" si="1"/>
+        <v>27.457999999999998</v>
+      </c>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
         <v>76</v>
@@ -2622,7 +2930,10 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="63">
+        <f t="shared" si="0"/>
+        <v>17.457999999999998</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2631,7 +2942,10 @@
       <c r="H60" s="39">
         <v>1</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="63">
+        <f t="shared" si="1"/>
+        <v>26.457999999999998</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="51">
         <v>44726</v>
@@ -2646,7 +2960,10 @@
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="63">
+        <f t="shared" si="0"/>
+        <v>17.457999999999998</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2655,7 +2972,10 @@
       <c r="H61" s="39">
         <v>1</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="63">
+        <f t="shared" si="1"/>
+        <v>25.457999999999998</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="50" t="s">
         <v>77</v>
@@ -2668,14 +2988,20 @@
         <v>1.25</v>
       </c>
       <c r="D62" s="39"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="63">
+        <f t="shared" si="0"/>
+        <v>18.707999999999998</v>
+      </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="63">
+        <f t="shared" si="1"/>
+        <v>26.707999999999998</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
@@ -2688,14 +3014,20 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="63">
+        <f t="shared" si="0"/>
+        <v>19.957999999999998</v>
+      </c>
       <c r="F63" s="20"/>
       <c r="G63" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="63">
+        <f t="shared" si="1"/>
+        <v>27.957999999999998</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
@@ -2710,7 +3042,10 @@
         <v>1.25</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="63">
+        <f t="shared" si="0"/>
+        <v>21.207999999999998</v>
+      </c>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2719,7 +3054,10 @@
       <c r="H64" s="39">
         <v>6</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="63">
+        <f t="shared" si="1"/>
+        <v>23.207999999999998</v>
+      </c>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
         <v>96</v>
@@ -2732,7 +3070,10 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="63">
+        <f t="shared" si="0"/>
+        <v>21.207999999999998</v>
+      </c>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2741,7 +3082,10 @@
       <c r="H65" s="39">
         <v>1</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="63">
+        <f t="shared" si="1"/>
+        <v>22.207999999999998</v>
+      </c>
       <c r="J65" s="11"/>
       <c r="K65" s="51">
         <v>44805</v>
@@ -2756,14 +3100,20 @@
       <c r="D66" s="39">
         <v>1</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="63">
+        <f t="shared" si="0"/>
+        <v>20.207999999999998</v>
+      </c>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="63">
+        <f t="shared" si="1"/>
+        <v>22.207999999999998</v>
+      </c>
       <c r="J66" s="11"/>
       <c r="K66" s="51">
         <v>44820</v>
@@ -2776,7 +3126,10 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="63">
+        <f t="shared" si="0"/>
+        <v>20.207999999999998</v>
+      </c>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2785,7 +3138,10 @@
       <c r="H67" s="39">
         <v>1</v>
       </c>
-      <c r="I67" s="9"/>
+      <c r="I67" s="63">
+        <f t="shared" si="1"/>
+        <v>21.207999999999998</v>
+      </c>
       <c r="J67" s="11"/>
       <c r="K67" s="51">
         <v>44824</v>
@@ -2804,14 +3160,20 @@
       <c r="D68" s="39">
         <v>1</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="63">
+        <f t="shared" si="0"/>
+        <v>20.457999999999998</v>
+      </c>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="63">
+        <f t="shared" si="1"/>
+        <v>22.457999999999998</v>
+      </c>
       <c r="J68" s="11"/>
       <c r="K68" s="51">
         <v>44852</v>
@@ -2830,14 +3192,20 @@
       <c r="D69" s="39">
         <v>1</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="63">
+        <f t="shared" si="0"/>
+        <v>20.707999999999998</v>
+      </c>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="63">
+        <f t="shared" si="1"/>
+        <v>23.707999999999998</v>
+      </c>
       <c r="J69" s="11"/>
       <c r="K69" s="51">
         <v>44867</v>
@@ -2854,7 +3222,10 @@
         <v>1.25</v>
       </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="63">
+        <f t="shared" si="0"/>
+        <v>21.957999999999998</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2863,7 +3234,10 @@
       <c r="H70" s="39">
         <v>1</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="I70" s="63">
+        <f t="shared" si="1"/>
+        <v>23.957999999999998</v>
+      </c>
       <c r="J70" s="11"/>
       <c r="K70" s="51">
         <v>44897</v>
@@ -2878,14 +3252,20 @@
       <c r="D71" s="39">
         <v>2</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="63">
+        <f t="shared" si="0"/>
+        <v>19.957999999999998</v>
+      </c>
       <c r="F71" s="20"/>
       <c r="G71" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H71" s="39"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="63">
+        <f t="shared" si="1"/>
+        <v>23.957999999999998</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="51" t="s">
         <v>87</v>
@@ -2898,7 +3278,10 @@
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="63">
+        <f t="shared" si="0"/>
+        <v>19.957999999999998</v>
+      </c>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -2907,7 +3290,10 @@
       <c r="H72" s="39">
         <v>1</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="63">
+        <f t="shared" si="1"/>
+        <v>22.957999999999998</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="51">
         <v>44910</v>
@@ -2922,14 +3308,20 @@
       <c r="D73" s="39">
         <v>0.35199999999999998</v>
       </c>
-      <c r="E73" s="9"/>
+      <c r="E73" s="63">
+        <f t="shared" si="0"/>
+        <v>19.605999999999998</v>
+      </c>
       <c r="F73" s="20"/>
       <c r="G73" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="63">
+        <f t="shared" si="1"/>
+        <v>22.957999999999998</v>
+      </c>
       <c r="J73" s="11"/>
       <c r="K73" s="51"/>
     </row>
@@ -2940,14 +3332,20 @@
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="63">
+        <f t="shared" si="0"/>
+        <v>19.605999999999998</v>
+      </c>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="63">
+        <f t="shared" si="1"/>
+        <v>22.957999999999998</v>
+      </c>
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
@@ -2964,14 +3362,20 @@
       <c r="D75" s="39">
         <v>1</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="63">
+        <f t="shared" si="0"/>
+        <v>19.855999999999998</v>
+      </c>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="63">
+        <f t="shared" si="1"/>
+        <v>24.207999999999998</v>
+      </c>
       <c r="J75" s="11"/>
       <c r="K75" s="51">
         <v>44959</v>
@@ -2986,14 +3390,20 @@
       <c r="D76" s="39">
         <v>1</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="63">
+        <f t="shared" ref="E76:E100" si="2">SUM(C76,E75)-D76</f>
+        <v>18.855999999999998</v>
+      </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="63">
+        <f t="shared" ref="I76:I100" si="3">SUM(G76,I75)-H76</f>
+        <v>24.207999999999998</v>
+      </c>
       <c r="J76" s="11"/>
       <c r="K76" s="51">
         <v>44932</v>
@@ -3008,14 +3418,20 @@
       <c r="D77" s="39">
         <v>0.371</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="63">
+        <f t="shared" si="2"/>
+        <v>18.484999999999999</v>
+      </c>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="63">
+        <f t="shared" si="3"/>
+        <v>24.207999999999998</v>
+      </c>
       <c r="J77" s="11"/>
       <c r="K77" s="51"/>
     </row>
@@ -3032,14 +3448,20 @@
       <c r="D78" s="39">
         <v>0.04</v>
       </c>
-      <c r="E78" s="9"/>
+      <c r="E78" s="63">
+        <f t="shared" si="2"/>
+        <v>19.695</v>
+      </c>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="63">
+        <f t="shared" si="3"/>
+        <v>25.457999999999998</v>
+      </c>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
@@ -3056,14 +3478,20 @@
       <c r="D79" s="39">
         <v>1.625</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="63">
+        <f t="shared" si="2"/>
+        <v>19.32</v>
+      </c>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="63">
+        <f t="shared" si="3"/>
+        <v>26.707999999999998</v>
+      </c>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
@@ -3080,14 +3508,20 @@
       <c r="D80" s="39">
         <v>5</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="63">
+        <f t="shared" si="2"/>
+        <v>15.57</v>
+      </c>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="63">
+        <f t="shared" si="3"/>
+        <v>27.957999999999998</v>
+      </c>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
         <v>91</v>
@@ -3106,14 +3540,20 @@
       <c r="D81" s="39">
         <v>2</v>
       </c>
-      <c r="E81" s="9"/>
+      <c r="E81" s="63">
+        <f t="shared" si="2"/>
+        <v>14.82</v>
+      </c>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="63">
+        <f t="shared" si="3"/>
+        <v>29.207999999999998</v>
+      </c>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
         <v>90</v>
@@ -3126,7 +3566,10 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="63">
+        <f t="shared" si="2"/>
+        <v>14.82</v>
+      </c>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3135,7 +3578,10 @@
       <c r="H82" s="39">
         <v>1</v>
       </c>
-      <c r="I82" s="9"/>
+      <c r="I82" s="63">
+        <f t="shared" si="3"/>
+        <v>28.207999999999998</v>
+      </c>
       <c r="J82" s="11"/>
       <c r="K82" s="51">
         <v>45041</v>
@@ -3150,14 +3596,20 @@
       <c r="D83" s="39">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="63">
+        <f t="shared" si="2"/>
+        <v>14.343</v>
+      </c>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="63">
+        <f t="shared" si="3"/>
+        <v>28.207999999999998</v>
+      </c>
       <c r="J83" s="11"/>
       <c r="K83" s="51"/>
     </row>
@@ -3172,7 +3624,10 @@
         <v>1.25</v>
       </c>
       <c r="D84" s="39"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="63">
+        <f t="shared" si="2"/>
+        <v>15.593</v>
+      </c>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3181,7 +3636,10 @@
       <c r="H84" s="39">
         <v>1</v>
       </c>
-      <c r="I84" s="9"/>
+      <c r="I84" s="63">
+        <f t="shared" si="3"/>
+        <v>28.457999999999998</v>
+      </c>
       <c r="J84" s="11"/>
       <c r="K84" s="51">
         <v>45082</v>
@@ -3194,14 +3652,20 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="63">
+        <f t="shared" si="2"/>
+        <v>15.593</v>
+      </c>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="63">
+        <f t="shared" si="3"/>
+        <v>28.457999999999998</v>
+      </c>
       <c r="J85" s="11"/>
       <c r="K85" s="51">
         <v>45107</v>
@@ -3216,14 +3680,20 @@
       <c r="D86" s="39">
         <v>0.18700000000000003</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="63">
+        <f t="shared" si="2"/>
+        <v>15.406000000000001</v>
+      </c>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="63">
+        <f t="shared" si="3"/>
+        <v>28.457999999999998</v>
+      </c>
       <c r="J86" s="11"/>
       <c r="K86" s="51"/>
     </row>
@@ -3238,7 +3708,10 @@
         <v>1.25</v>
       </c>
       <c r="D87" s="39"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="63">
+        <f t="shared" si="2"/>
+        <v>16.655999999999999</v>
+      </c>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3247,7 +3720,10 @@
       <c r="H87" s="39">
         <v>1</v>
       </c>
-      <c r="I87" s="9"/>
+      <c r="I87" s="63">
+        <f t="shared" si="3"/>
+        <v>28.707999999999998</v>
+      </c>
       <c r="J87" s="11"/>
       <c r="K87" s="51">
         <v>45117</v>
@@ -3260,7 +3736,10 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="63">
+        <f t="shared" si="2"/>
+        <v>16.655999999999999</v>
+      </c>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3269,7 +3748,10 @@
       <c r="H88" s="39">
         <v>1</v>
       </c>
-      <c r="I88" s="9"/>
+      <c r="I88" s="63">
+        <f t="shared" si="3"/>
+        <v>27.707999999999998</v>
+      </c>
       <c r="J88" s="11"/>
       <c r="K88" s="51">
         <v>45121</v>
@@ -3282,7 +3764,10 @@
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="63">
+        <f t="shared" si="2"/>
+        <v>16.655999999999999</v>
+      </c>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3291,7 +3776,10 @@
       <c r="H89" s="39">
         <v>1</v>
       </c>
-      <c r="I89" s="9"/>
+      <c r="I89" s="63">
+        <f t="shared" si="3"/>
+        <v>26.707999999999998</v>
+      </c>
       <c r="J89" s="11"/>
       <c r="K89" s="51">
         <v>45125</v>
@@ -3306,14 +3794,20 @@
       <c r="D90" s="39">
         <v>0.01</v>
       </c>
-      <c r="E90" s="9"/>
+      <c r="E90" s="63">
+        <f t="shared" si="2"/>
+        <v>16.645999999999997</v>
+      </c>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H90" s="39"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="63">
+        <f t="shared" si="3"/>
+        <v>26.707999999999998</v>
+      </c>
       <c r="J90" s="11"/>
       <c r="K90" s="51"/>
     </row>
@@ -3330,14 +3824,20 @@
       <c r="D91" s="39">
         <v>1</v>
       </c>
-      <c r="E91" s="9"/>
+      <c r="E91" s="63">
+        <f t="shared" si="2"/>
+        <v>16.895999999999997</v>
+      </c>
       <c r="F91" s="20"/>
       <c r="G91" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="63">
+        <f t="shared" si="3"/>
+        <v>27.957999999999998</v>
+      </c>
       <c r="J91" s="11"/>
       <c r="K91" s="51">
         <v>45146</v>
@@ -3352,14 +3852,20 @@
       <c r="D92" s="39">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E92" s="9"/>
+      <c r="E92" s="63">
+        <f t="shared" si="2"/>
+        <v>16.887999999999998</v>
+      </c>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="63">
+        <f t="shared" si="3"/>
+        <v>27.957999999999998</v>
+      </c>
       <c r="J92" s="11"/>
       <c r="K92" s="51"/>
     </row>
@@ -3372,14 +3878,20 @@
         <v>1.25</v>
       </c>
       <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="63">
+        <f t="shared" si="2"/>
+        <v>18.137999999999998</v>
+      </c>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="63">
+        <f t="shared" si="3"/>
+        <v>29.207999999999998</v>
+      </c>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
@@ -3394,14 +3906,20 @@
         <v>1.25</v>
       </c>
       <c r="D94" s="39"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="63">
+        <f t="shared" si="2"/>
+        <v>19.387999999999998</v>
+      </c>
       <c r="F94" s="20"/>
       <c r="G94" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="63">
+        <f t="shared" si="3"/>
+        <v>30.457999999999998</v>
+      </c>
       <c r="J94" s="11"/>
       <c r="K94" s="51">
         <v>45221</v>
@@ -3414,7 +3932,10 @@
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="63">
+        <f t="shared" si="2"/>
+        <v>19.387999999999998</v>
+      </c>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3423,7 +3944,10 @@
       <c r="H95" s="39">
         <v>1</v>
       </c>
-      <c r="I95" s="9"/>
+      <c r="I95" s="63">
+        <f t="shared" si="3"/>
+        <v>29.457999999999998</v>
+      </c>
       <c r="J95" s="11"/>
       <c r="K95" s="51">
         <v>45230</v>
@@ -3436,7 +3960,10 @@
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="63">
+        <f t="shared" si="2"/>
+        <v>19.387999999999998</v>
+      </c>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3445,7 +3972,10 @@
       <c r="H96" s="39">
         <v>1</v>
       </c>
-      <c r="I96" s="9"/>
+      <c r="I96" s="63">
+        <f t="shared" si="3"/>
+        <v>28.457999999999998</v>
+      </c>
       <c r="J96" s="11"/>
       <c r="K96" s="51">
         <v>45222</v>
@@ -3464,14 +3994,20 @@
       <c r="D97" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E97" s="9"/>
+      <c r="E97" s="63">
+        <f t="shared" si="2"/>
+        <v>20.622999999999998</v>
+      </c>
       <c r="F97" s="20"/>
       <c r="G97" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="63">
+        <f t="shared" si="3"/>
+        <v>29.707999999999998</v>
+      </c>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
@@ -3484,14 +4020,20 @@
         <v>1.25</v>
       </c>
       <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="63">
+        <f t="shared" si="2"/>
+        <v>21.872999999999998</v>
+      </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="63">
+        <f t="shared" si="3"/>
+        <v>30.957999999999998</v>
+      </c>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
@@ -3502,14 +4044,20 @@
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="63">
+        <f t="shared" si="2"/>
+        <v>21.872999999999998</v>
+      </c>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="63">
+        <f t="shared" si="3"/>
+        <v>30.957999999999998</v>
+      </c>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
@@ -3524,7 +4072,10 @@
         <v>1.25</v>
       </c>
       <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="63">
+        <f t="shared" si="2"/>
+        <v>23.122999999999998</v>
+      </c>
       <c r="F100" s="20"/>
       <c r="G100" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -3533,7 +4084,10 @@
       <c r="H100" s="39">
         <v>1</v>
       </c>
-      <c r="I100" s="9"/>
+      <c r="I100" s="63">
+        <f t="shared" si="3"/>
+        <v>31.207999999999998</v>
+      </c>
       <c r="J100" s="11"/>
       <c r="K100" s="51">
         <v>45295</v>

--- a/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
+++ b/REGULAR/ACCOUNTING/AMON, RHEALYN OCAMPO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E34167-D813-48CE-A955-C5EAC53F9803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC2008-F4C7-4479-A6C9-1EF6B51AD87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>PERIOD</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>UT(0-2-58)</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>TAIWAN 2/22-26/2024</t>
   </si>
 </sst>
 </file>
@@ -367,7 +373,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,14 +408,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -599,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,10 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K112" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K113" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1396,12 +1391,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K112"/>
+  <dimension ref="A2:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
       <pane ySplit="4008" topLeftCell="A96" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection activeCell="E9" sqref="E9:I9"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,17 +1561,17 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="64">
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>22.123000000000005</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="64">
+      <c r="H9" s="63"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>30.207999999999998</v>
       </c>
@@ -1614,7 +1609,7 @@
         <v>1.208</v>
       </c>
       <c r="D11" s="39"/>
-      <c r="E11" s="63">
+      <c r="E11" s="9">
         <f>SUM(C11,E10)-D11</f>
         <v>1.208</v>
       </c>
@@ -1624,7 +1619,7 @@
         <v>1.208</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="63">
+      <c r="I11" s="9">
         <f>SUM(G11,I10)-H11</f>
         <v>1.208</v>
       </c>
@@ -1642,7 +1637,7 @@
         <v>1.25</v>
       </c>
       <c r="D12" s="39"/>
-      <c r="E12" s="63">
+      <c r="E12" s="9">
         <f t="shared" ref="E12:E75" si="0">SUM(C12,E11)-D12</f>
         <v>2.4580000000000002</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>1.25</v>
       </c>
       <c r="H12" s="39"/>
-      <c r="I12" s="63">
+      <c r="I12" s="9">
         <f t="shared" ref="I12:I75" si="1">SUM(G12,I11)-H12</f>
         <v>2.4580000000000002</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>1.25</v>
       </c>
       <c r="D13" s="39"/>
-      <c r="E13" s="63">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>3.7080000000000002</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>1.25</v>
       </c>
       <c r="H13" s="39"/>
-      <c r="I13" s="63">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>3.7080000000000002</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>1.25</v>
       </c>
       <c r="D14" s="39"/>
-      <c r="E14" s="63">
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>4.9580000000000002</v>
       </c>
@@ -1706,7 +1701,7 @@
         <v>1.25</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="63">
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>4.9580000000000002</v>
       </c>
@@ -1722,7 +1717,7 @@
         <v>1.25</v>
       </c>
       <c r="D15" s="39"/>
-      <c r="E15" s="63">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>6.2080000000000002</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>1.25</v>
       </c>
       <c r="H15" s="39"/>
-      <c r="I15" s="63">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>6.2080000000000002</v>
       </c>
@@ -1748,7 +1743,7 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="63">
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>7.4580000000000002</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>1.25</v>
       </c>
       <c r="H16" s="43"/>
-      <c r="I16" s="63">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>7.4580000000000002</v>
       </c>
@@ -1774,7 +1769,7 @@
         <v>1.25</v>
       </c>
       <c r="D17" s="39"/>
-      <c r="E17" s="63">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>8.7080000000000002</v>
       </c>
@@ -1784,7 +1779,7 @@
         <v>1.25</v>
       </c>
       <c r="H17" s="39"/>
-      <c r="I17" s="63">
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>8.7080000000000002</v>
       </c>
@@ -1800,7 +1795,7 @@
         <v>1.25</v>
       </c>
       <c r="D18" s="39"/>
-      <c r="E18" s="63">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1810,7 +1805,7 @@
         <v>1.25</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="63">
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1826,7 +1821,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="63">
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v/>
       </c>
       <c r="H19" s="39"/>
-      <c r="I19" s="63">
+      <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1852,7 +1847,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="63">
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1862,7 +1857,7 @@
         <v/>
       </c>
       <c r="H20" s="39"/>
-      <c r="I20" s="63">
+      <c r="I20" s="9">
         <f t="shared" si="1"/>
         <v>9.9580000000000002</v>
       </c>
@@ -1878,7 +1873,7 @@
         <v>1.25</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="63">
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>11.208</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="63">
+      <c r="I21" s="9">
         <f t="shared" si="1"/>
         <v>11.208</v>
       </c>
@@ -1904,7 +1899,7 @@
         <v>1.25</v>
       </c>
       <c r="D22" s="39"/>
-      <c r="E22" s="63">
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>12.458</v>
       </c>
@@ -1914,7 +1909,7 @@
         <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="63">
+      <c r="I22" s="9">
         <f t="shared" si="1"/>
         <v>12.458</v>
       </c>
@@ -1930,7 +1925,7 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="63">
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>12.458</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v/>
       </c>
       <c r="H23" s="39"/>
-      <c r="I23" s="63">
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
         <v>12.458</v>
       </c>
@@ -1956,7 +1951,7 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="63">
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>13.708</v>
       </c>
@@ -1966,7 +1961,7 @@
         <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="63">
+      <c r="I24" s="9">
         <f t="shared" si="1"/>
         <v>13.708</v>
       </c>
@@ -1984,7 +1979,7 @@
       <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>12.708</v>
       </c>
@@ -1994,7 +1989,7 @@
         <v/>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="63">
+      <c r="I25" s="9">
         <f t="shared" si="1"/>
         <v>13.708</v>
       </c>
@@ -2012,7 +2007,7 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>11.708</v>
       </c>
@@ -2022,7 +2017,7 @@
         <v/>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="63">
+      <c r="I26" s="9">
         <f t="shared" si="1"/>
         <v>13.708</v>
       </c>
@@ -2038,7 +2033,7 @@
         <v>1.25</v>
       </c>
       <c r="D27" s="39"/>
-      <c r="E27" s="63">
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>12.958</v>
       </c>
@@ -2048,7 +2043,7 @@
         <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="63">
+      <c r="I27" s="9">
         <f t="shared" si="1"/>
         <v>14.958</v>
       </c>
@@ -2062,7 +2057,7 @@
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="63">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>12.958</v>
       </c>
@@ -2072,7 +2067,7 @@
         <v/>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="63">
+      <c r="I28" s="9">
         <f t="shared" si="1"/>
         <v>14.958</v>
       </c>
@@ -2090,7 +2085,7 @@
         <v>1.25</v>
       </c>
       <c r="D29" s="39"/>
-      <c r="E29" s="63">
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>14.208</v>
       </c>
@@ -2100,7 +2095,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="63">
+      <c r="I29" s="9">
         <f t="shared" si="1"/>
         <v>16.207999999999998</v>
       </c>
@@ -2120,7 +2115,7 @@
         <v>1.25</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="63">
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>15.458</v>
       </c>
@@ -2132,7 +2127,7 @@
       <c r="H30" s="39">
         <v>1</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="9">
         <f t="shared" si="1"/>
         <v>16.457999999999998</v>
       </c>
@@ -2148,7 +2143,7 @@
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="63">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>15.458</v>
       </c>
@@ -2160,7 +2155,7 @@
       <c r="H31" s="39">
         <v>1</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="9">
         <f t="shared" si="1"/>
         <v>15.457999999999998</v>
       </c>
@@ -2176,7 +2171,7 @@
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="63">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>15.458</v>
       </c>
@@ -2188,7 +2183,7 @@
       <c r="H32" s="39">
         <v>1</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="9">
         <f t="shared" si="1"/>
         <v>14.457999999999998</v>
       </c>
@@ -2206,7 +2201,7 @@
         <v>1.25</v>
       </c>
       <c r="D33" s="39"/>
-      <c r="E33" s="63">
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>16.707999999999998</v>
       </c>
@@ -2216,7 +2211,7 @@
         <v>1.25</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="63">
+      <c r="I33" s="9">
         <f t="shared" si="1"/>
         <v>15.707999999999998</v>
       </c>
@@ -2232,7 +2227,7 @@
         <v>1.25</v>
       </c>
       <c r="D34" s="39"/>
-      <c r="E34" s="63">
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>17.957999999999998</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>1.25</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="63">
+      <c r="I34" s="9">
         <f t="shared" si="1"/>
         <v>16.957999999999998</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>1.25</v>
       </c>
       <c r="D35" s="39"/>
-      <c r="E35" s="63">
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>19.207999999999998</v>
       </c>
@@ -2268,7 +2263,7 @@
         <v>1.25</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="63">
+      <c r="I35" s="9">
         <f t="shared" si="1"/>
         <v>18.207999999999998</v>
       </c>
@@ -2286,7 +2281,7 @@
       <c r="D36" s="39">
         <v>12</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>7.2079999999999984</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v/>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="63">
+      <c r="I36" s="9">
         <f t="shared" si="1"/>
         <v>18.207999999999998</v>
       </c>
@@ -2312,7 +2307,7 @@
         <v>1.25</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="E37" s="63">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>8.4579999999999984</v>
       </c>
@@ -2322,7 +2317,7 @@
         <v>1.25</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="63">
+      <c r="I37" s="9">
         <f t="shared" si="1"/>
         <v>19.457999999999998</v>
       </c>
@@ -2338,7 +2333,7 @@
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="63">
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>8.4579999999999984</v>
       </c>
@@ -2350,7 +2345,7 @@
       <c r="H38" s="39">
         <v>5</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="9">
         <f t="shared" si="1"/>
         <v>14.457999999999998</v>
       </c>
@@ -2368,7 +2363,7 @@
       <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>7.4579999999999984</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v/>
       </c>
       <c r="H39" s="39"/>
-      <c r="I39" s="63">
+      <c r="I39" s="9">
         <f t="shared" si="1"/>
         <v>14.457999999999998</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>1.25</v>
       </c>
       <c r="D40" s="39"/>
-      <c r="E40" s="63">
+      <c r="E40" s="9">
         <f t="shared" si="0"/>
         <v>8.7079999999999984</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>1.25</v>
       </c>
       <c r="H40" s="39"/>
-      <c r="I40" s="63">
+      <c r="I40" s="9">
         <f t="shared" si="1"/>
         <v>15.707999999999998</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>1.25</v>
       </c>
       <c r="D41" s="39"/>
-      <c r="E41" s="63">
+      <c r="E41" s="9">
         <f t="shared" si="0"/>
         <v>9.9579999999999984</v>
       </c>
@@ -2430,7 +2425,7 @@
         <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
-      <c r="I41" s="63">
+      <c r="I41" s="9">
         <f t="shared" si="1"/>
         <v>16.957999999999998</v>
       </c>
@@ -2446,7 +2441,7 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="63">
+      <c r="E42" s="9">
         <f t="shared" si="0"/>
         <v>11.207999999999998</v>
       </c>
@@ -2456,7 +2451,7 @@
         <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
-      <c r="I42" s="63">
+      <c r="I42" s="9">
         <f t="shared" si="1"/>
         <v>18.207999999999998</v>
       </c>
@@ -2474,7 +2469,7 @@
       <c r="D43" s="39">
         <v>1</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>10.207999999999998</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v/>
       </c>
       <c r="H43" s="39"/>
-      <c r="I43" s="63">
+      <c r="I43" s="9">
         <f t="shared" si="1"/>
         <v>18.207999999999998</v>
       </c>
@@ -2500,7 +2495,7 @@
         <v>1.25</v>
       </c>
       <c r="D44" s="39"/>
-      <c r="E44" s="63">
+      <c r="E44" s="9">
         <f t="shared" si="0"/>
         <v>11.457999999999998</v>
       </c>
@@ -2510,7 +2505,7 @@
         <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
-      <c r="I44" s="63">
+      <c r="I44" s="9">
         <f t="shared" si="1"/>
         <v>19.457999999999998</v>
       </c>
@@ -2528,7 +2523,7 @@
       <c r="D45" s="39">
         <v>2</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="9">
         <f t="shared" si="0"/>
         <v>9.4579999999999984</v>
       </c>
@@ -2538,7 +2533,7 @@
         <v/>
       </c>
       <c r="H45" s="39"/>
-      <c r="I45" s="63">
+      <c r="I45" s="9">
         <f t="shared" si="1"/>
         <v>19.457999999999998</v>
       </c>
@@ -2554,7 +2549,7 @@
         <v>1.25</v>
       </c>
       <c r="D46" s="39"/>
-      <c r="E46" s="63">
+      <c r="E46" s="9">
         <f t="shared" si="0"/>
         <v>10.707999999999998</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
-      <c r="I46" s="63">
+      <c r="I46" s="9">
         <f t="shared" si="1"/>
         <v>20.707999999999998</v>
       </c>
@@ -2584,7 +2579,7 @@
       <c r="D47" s="39">
         <v>1</v>
       </c>
-      <c r="E47" s="63">
+      <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>10.957999999999998</v>
       </c>
@@ -2594,7 +2589,7 @@
         <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
-      <c r="I47" s="63">
+      <c r="I47" s="9">
         <f t="shared" si="1"/>
         <v>21.957999999999998</v>
       </c>
@@ -2610,7 +2605,7 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="63">
+      <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>10.957999999999998</v>
       </c>
@@ -2620,7 +2615,7 @@
         <v/>
       </c>
       <c r="H48" s="39"/>
-      <c r="I48" s="63">
+      <c r="I48" s="9">
         <f t="shared" si="1"/>
         <v>21.957999999999998</v>
       </c>
@@ -2636,7 +2631,7 @@
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="63">
+      <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>10.957999999999998</v>
       </c>
@@ -2646,7 +2641,7 @@
         <v/>
       </c>
       <c r="H49" s="39"/>
-      <c r="I49" s="63">
+      <c r="I49" s="9">
         <f t="shared" si="1"/>
         <v>21.957999999999998</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>1.25</v>
       </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="63">
+      <c r="E50" s="9">
         <f t="shared" si="0"/>
         <v>12.207999999999998</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
-      <c r="I50" s="63">
+      <c r="I50" s="9">
         <f t="shared" si="1"/>
         <v>23.207999999999998</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>1.25</v>
       </c>
       <c r="D51" s="39"/>
-      <c r="E51" s="63">
+      <c r="E51" s="9">
         <f t="shared" si="0"/>
         <v>13.457999999999998</v>
       </c>
@@ -2698,7 +2693,7 @@
         <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
-      <c r="I51" s="63">
+      <c r="I51" s="9">
         <f t="shared" si="1"/>
         <v>24.457999999999998</v>
       </c>
@@ -2714,7 +2709,7 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="63">
+      <c r="E52" s="9">
         <f t="shared" si="0"/>
         <v>14.707999999999998</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
-      <c r="I52" s="63">
+      <c r="I52" s="9">
         <f t="shared" si="1"/>
         <v>25.707999999999998</v>
       </c>
@@ -2742,7 +2737,7 @@
       <c r="D53" s="39">
         <v>1</v>
       </c>
-      <c r="E53" s="63">
+      <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>13.707999999999998</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v/>
       </c>
       <c r="H53" s="39"/>
-      <c r="I53" s="63">
+      <c r="I53" s="9">
         <f t="shared" si="1"/>
         <v>25.707999999999998</v>
       </c>
@@ -2768,7 +2763,7 @@
         <v>1.25</v>
       </c>
       <c r="D54" s="39"/>
-      <c r="E54" s="63">
+      <c r="E54" s="9">
         <f t="shared" si="0"/>
         <v>14.957999999999998</v>
       </c>
@@ -2778,7 +2773,7 @@
         <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
-      <c r="I54" s="63">
+      <c r="I54" s="9">
         <f t="shared" si="1"/>
         <v>26.957999999999998</v>
       </c>
@@ -2794,7 +2789,7 @@
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="63">
+      <c r="E55" s="9">
         <f t="shared" si="0"/>
         <v>14.957999999999998</v>
       </c>
@@ -2806,7 +2801,7 @@
       <c r="H55" s="39">
         <v>1</v>
       </c>
-      <c r="I55" s="63">
+      <c r="I55" s="9">
         <f t="shared" si="1"/>
         <v>25.957999999999998</v>
       </c>
@@ -2822,7 +2817,7 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="63">
+      <c r="E56" s="9">
         <f t="shared" si="0"/>
         <v>16.207999999999998</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
-      <c r="I56" s="63">
+      <c r="I56" s="9">
         <f t="shared" si="1"/>
         <v>27.207999999999998</v>
       </c>
@@ -2850,7 +2845,7 @@
         <v>1.25</v>
       </c>
       <c r="D57" s="39"/>
-      <c r="E57" s="63">
+      <c r="E57" s="9">
         <f t="shared" si="0"/>
         <v>17.457999999999998</v>
       </c>
@@ -2862,7 +2857,7 @@
       <c r="H57" s="39">
         <v>1</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="9">
         <f t="shared" si="1"/>
         <v>27.457999999999998</v>
       </c>
@@ -2878,7 +2873,7 @@
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="63">
+      <c r="E58" s="9">
         <f t="shared" si="0"/>
         <v>17.457999999999998</v>
       </c>
@@ -2888,7 +2883,7 @@
         <v/>
       </c>
       <c r="H58" s="39"/>
-      <c r="I58" s="63">
+      <c r="I58" s="9">
         <f t="shared" si="1"/>
         <v>27.457999999999998</v>
       </c>
@@ -2904,7 +2899,7 @@
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="63">
+      <c r="E59" s="9">
         <f t="shared" si="0"/>
         <v>17.457999999999998</v>
       </c>
@@ -2914,7 +2909,7 @@
         <v/>
       </c>
       <c r="H59" s="39"/>
-      <c r="I59" s="63">
+      <c r="I59" s="9">
         <f t="shared" si="1"/>
         <v>27.457999999999998</v>
       </c>
@@ -2930,7 +2925,7 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="63">
+      <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>17.457999999999998</v>
       </c>
@@ -2942,7 +2937,7 @@
       <c r="H60" s="39">
         <v>1</v>
       </c>
-      <c r="I60" s="63">
+      <c r="I60" s="9">
         <f t="shared" si="1"/>
         <v>26.457999999999998</v>
       </c>
@@ -2960,7 +2955,7 @@
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="63">
+      <c r="E61" s="9">
         <f t="shared" si="0"/>
         <v>17.457999999999998</v>
       </c>
@@ -2972,7 +2967,7 @@
       <c r="H61" s="39">
         <v>1</v>
       </c>
-      <c r="I61" s="63">
+      <c r="I61" s="9">
         <f t="shared" si="1"/>
         <v>25.457999999999998</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>1.25</v>
       </c>
       <c r="D62" s="39"/>
-      <c r="E62" s="63">
+      <c r="E62" s="9">
         <f t="shared" si="0"/>
         <v>18.707999999999998</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
-      <c r="I62" s="63">
+      <c r="I62" s="9">
         <f t="shared" si="1"/>
         <v>26.707999999999998</v>
       </c>
@@ -3014,7 +3009,7 @@
         <v>1.25</v>
       </c>
       <c r="D63" s="39"/>
-      <c r="E63" s="63">
+      <c r="E63" s="9">
         <f t="shared" si="0"/>
         <v>19.957999999999998</v>
       </c>
@@ -3024,7 +3019,7 @@
         <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
-      <c r="I63" s="63">
+      <c r="I63" s="9">
         <f t="shared" si="1"/>
         <v>27.957999999999998</v>
       </c>
@@ -3042,7 +3037,7 @@
         <v>1.25</v>
       </c>
       <c r="D64" s="39"/>
-      <c r="E64" s="63">
+      <c r="E64" s="9">
         <f t="shared" si="0"/>
         <v>21.207999999999998</v>
       </c>
@@ -3054,7 +3049,7 @@
       <c r="H64" s="39">
         <v>6</v>
       </c>
-      <c r="I64" s="63">
+      <c r="I64" s="9">
         <f t="shared" si="1"/>
         <v>23.207999999999998</v>
       </c>
@@ -3070,7 +3065,7 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="63">
+      <c r="E65" s="9">
         <f t="shared" si="0"/>
         <v>21.207999999999998</v>
       </c>
@@ -3082,7 +3077,7 @@
       <c r="H65" s="39">
         <v>1</v>
       </c>
-      <c r="I65" s="63">
+      <c r="I65" s="9">
         <f t="shared" si="1"/>
         <v>22.207999999999998</v>
       </c>
@@ -3100,7 +3095,7 @@
       <c r="D66" s="39">
         <v>1</v>
       </c>
-      <c r="E66" s="63">
+      <c r="E66" s="9">
         <f t="shared" si="0"/>
         <v>20.207999999999998</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v/>
       </c>
       <c r="H66" s="39"/>
-      <c r="I66" s="63">
+      <c r="I66" s="9">
         <f t="shared" si="1"/>
         <v>22.207999999999998</v>
       </c>
@@ -3126,7 +3121,7 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="63">
+      <c r="E67" s="9">
         <f t="shared" si="0"/>
         <v>20.207999999999998</v>
       </c>
@@ -3138,7 +3133,7 @@
       <c r="H67" s="39">
         <v>1</v>
       </c>
-      <c r="I67" s="63">
+      <c r="I67" s="9">
         <f t="shared" si="1"/>
         <v>21.207999999999998</v>
       </c>
@@ -3160,7 +3155,7 @@
       <c r="D68" s="39">
         <v>1</v>
       </c>
-      <c r="E68" s="63">
+      <c r="E68" s="9">
         <f t="shared" si="0"/>
         <v>20.457999999999998</v>
       </c>
@@ -3170,7 +3165,7 @@
         <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
-      <c r="I68" s="63">
+      <c r="I68" s="9">
         <f t="shared" si="1"/>
         <v>22.457999999999998</v>
       </c>
@@ -3192,7 +3187,7 @@
       <c r="D69" s="39">
         <v>1</v>
       </c>
-      <c r="E69" s="63">
+      <c r="E69" s="9">
         <f t="shared" si="0"/>
         <v>20.707999999999998</v>
       </c>
@@ -3202,7 +3197,7 @@
         <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
-      <c r="I69" s="63">
+      <c r="I69" s="9">
         <f t="shared" si="1"/>
         <v>23.707999999999998</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>1.25</v>
       </c>
       <c r="D70" s="39"/>
-      <c r="E70" s="63">
+      <c r="E70" s="9">
         <f t="shared" si="0"/>
         <v>21.957999999999998</v>
       </c>
@@ -3234,7 +3229,7 @@
       <c r="H70" s="39">
         <v>1</v>
       </c>
-      <c r="I70" s="63">
+      <c r="I70" s="9">
         <f t="shared" si="1"/>
         <v>23.957999999999998</v>
       </c>
@@ -3252,7 +3247,7 @@
       <c r="D71" s="39">
         <v>2</v>
       </c>
-      <c r="E71" s="63">
+      <c r="E71" s="9">
         <f t="shared" si="0"/>
         <v>19.957999999999998</v>
       </c>
@@ -3262,7 +3257,7 @@
         <v/>
       </c>
       <c r="H71" s="39"/>
-      <c r="I71" s="63">
+      <c r="I71" s="9">
         <f t="shared" si="1"/>
         <v>23.957999999999998</v>
       </c>
@@ -3278,7 +3273,7 @@
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="63">
+      <c r="E72" s="9">
         <f t="shared" si="0"/>
         <v>19.957999999999998</v>
       </c>
@@ -3290,7 +3285,7 @@
       <c r="H72" s="39">
         <v>1</v>
       </c>
-      <c r="I72" s="63">
+      <c r="I72" s="9">
         <f t="shared" si="1"/>
         <v>22.957999999999998</v>
       </c>
@@ -3308,7 +3303,7 @@
       <c r="D73" s="39">
         <v>0.35199999999999998</v>
       </c>
-      <c r="E73" s="63">
+      <c r="E73" s="9">
         <f t="shared" si="0"/>
         <v>19.605999999999998</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v/>
       </c>
       <c r="H73" s="39"/>
-      <c r="I73" s="63">
+      <c r="I73" s="9">
         <f t="shared" si="1"/>
         <v>22.957999999999998</v>
       </c>
@@ -3332,7 +3327,7 @@
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="63">
+      <c r="E74" s="9">
         <f t="shared" si="0"/>
         <v>19.605999999999998</v>
       </c>
@@ -3342,7 +3337,7 @@
         <v/>
       </c>
       <c r="H74" s="39"/>
-      <c r="I74" s="63">
+      <c r="I74" s="9">
         <f t="shared" si="1"/>
         <v>22.957999999999998</v>
       </c>
@@ -3362,7 +3357,7 @@
       <c r="D75" s="39">
         <v>1</v>
       </c>
-      <c r="E75" s="63">
+      <c r="E75" s="9">
         <f t="shared" si="0"/>
         <v>19.855999999999998</v>
       </c>
@@ -3372,7 +3367,7 @@
         <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
-      <c r="I75" s="63">
+      <c r="I75" s="9">
         <f t="shared" si="1"/>
         <v>24.207999999999998</v>
       </c>
@@ -3390,7 +3385,7 @@
       <c r="D76" s="39">
         <v>1</v>
       </c>
-      <c r="E76" s="63">
+      <c r="E76" s="9">
         <f t="shared" ref="E76:E100" si="2">SUM(C76,E75)-D76</f>
         <v>18.855999999999998</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v/>
       </c>
       <c r="H76" s="39"/>
-      <c r="I76" s="63">
+      <c r="I76" s="9">
         <f t="shared" ref="I76:I100" si="3">SUM(G76,I75)-H76</f>
         <v>24.207999999999998</v>
       </c>
@@ -3418,7 +3413,7 @@
       <c r="D77" s="39">
         <v>0.371</v>
       </c>
-      <c r="E77" s="63">
+      <c r="E77" s="9">
         <f t="shared" si="2"/>
         <v>18.484999999999999</v>
       </c>
@@ -3428,7 +3423,7 @@
         <v/>
       </c>
       <c r="H77" s="39"/>
-      <c r="I77" s="63">
+      <c r="I77" s="9">
         <f t="shared" si="3"/>
         <v>24.207999999999998</v>
       </c>
@@ -3448,7 +3443,7 @@
       <c r="D78" s="39">
         <v>0.04</v>
       </c>
-      <c r="E78" s="63">
+      <c r="E78" s="9">
         <f t="shared" si="2"/>
         <v>19.695</v>
       </c>
@@ -3458,7 +3453,7 @@
         <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
-      <c r="I78" s="63">
+      <c r="I78" s="9">
         <f t="shared" si="3"/>
         <v>25.457999999999998</v>
       </c>
@@ -3478,7 +3473,7 @@
       <c r="D79" s="39">
         <v>1.625</v>
       </c>
-      <c r="E79" s="63">
+      <c r="E79" s="9">
         <f t="shared" si="2"/>
         <v>19.32</v>
       </c>
@@ -3488,7 +3483,7 @@
         <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
-      <c r="I79" s="63">
+      <c r="I79" s="9">
         <f t="shared" si="3"/>
         <v>26.707999999999998</v>
       </c>
@@ -3508,7 +3503,7 @@
       <c r="D80" s="39">
         <v>5</v>
       </c>
-      <c r="E80" s="63">
+      <c r="E80" s="9">
         <f t="shared" si="2"/>
         <v>15.57</v>
       </c>
@@ -3518,7 +3513,7 @@
         <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
-      <c r="I80" s="63">
+      <c r="I80" s="9">
         <f t="shared" si="3"/>
         <v>27.957999999999998</v>
       </c>
@@ -3540,7 +3535,7 @@
       <c r="D81" s="39">
         <v>2</v>
       </c>
-      <c r="E81" s="63">
+      <c r="E81" s="9">
         <f t="shared" si="2"/>
         <v>14.82</v>
       </c>
@@ -3550,7 +3545,7 @@
         <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
-      <c r="I81" s="63">
+      <c r="I81" s="9">
         <f t="shared" si="3"/>
         <v>29.207999999999998</v>
       </c>
@@ -3566,7 +3561,7 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="63">
+      <c r="E82" s="9">
         <f t="shared" si="2"/>
         <v>14.82</v>
       </c>
@@ -3578,7 +3573,7 @@
       <c r="H82" s="39">
         <v>1</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="9">
         <f t="shared" si="3"/>
         <v>28.207999999999998</v>
       </c>
@@ -3596,7 +3591,7 @@
       <c r="D83" s="39">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E83" s="63">
+      <c r="E83" s="9">
         <f t="shared" si="2"/>
         <v>14.343</v>
       </c>
@@ -3606,7 +3601,7 @@
         <v/>
       </c>
       <c r="H83" s="39"/>
-      <c r="I83" s="63">
+      <c r="I83" s="9">
         <f t="shared" si="3"/>
         <v>28.207999999999998</v>
       </c>
@@ -3624,7 +3619,7 @@
         <v>1.25</v>
       </c>
       <c r="D84" s="39"/>
-      <c r="E84" s="63">
+      <c r="E84" s="9">
         <f t="shared" si="2"/>
         <v>15.593</v>
       </c>
@@ -3636,7 +3631,7 @@
       <c r="H84" s="39">
         <v>1</v>
       </c>
-      <c r="I84" s="63">
+      <c r="I84" s="9">
         <f t="shared" si="3"/>
         <v>28.457999999999998</v>
       </c>
@@ -3652,7 +3647,7 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="63">
+      <c r="E85" s="9">
         <f t="shared" si="2"/>
         <v>15.593</v>
       </c>
@@ -3662,7 +3657,7 @@
         <v/>
       </c>
       <c r="H85" s="39"/>
-      <c r="I85" s="63">
+      <c r="I85" s="9">
         <f t="shared" si="3"/>
         <v>28.457999999999998</v>
       </c>
@@ -3680,7 +3675,7 @@
       <c r="D86" s="39">
         <v>0.18700000000000003</v>
       </c>
-      <c r="E86" s="63">
+      <c r="E86" s="9">
         <f t="shared" si="2"/>
         <v>15.406000000000001</v>
       </c>
@@ -3690,7 +3685,7 @@
         <v/>
       </c>
       <c r="H86" s="39"/>
-      <c r="I86" s="63">
+      <c r="I86" s="9">
         <f t="shared" si="3"/>
         <v>28.457999999999998</v>
       </c>
@@ -3708,7 +3703,7 @@
         <v>1.25</v>
       </c>
       <c r="D87" s="39"/>
-      <c r="E87" s="63">
+      <c r="E87" s="9">
         <f t="shared" si="2"/>
         <v>16.655999999999999</v>
       </c>
@@ -3720,7 +3715,7 @@
       <c r="H87" s="39">
         <v>1</v>
       </c>
-      <c r="I87" s="63">
+      <c r="I87" s="9">
         <f t="shared" si="3"/>
         <v>28.707999999999998</v>
       </c>
@@ -3736,7 +3731,7 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="63">
+      <c r="E88" s="9">
         <f t="shared" si="2"/>
         <v>16.655999999999999</v>
       </c>
@@ -3748,7 +3743,7 @@
       <c r="H88" s="39">
         <v>1</v>
       </c>
-      <c r="I88" s="63">
+      <c r="I88" s="9">
         <f t="shared" si="3"/>
         <v>27.707999999999998</v>
       </c>
@@ -3764,7 +3759,7 @@
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="63">
+      <c r="E89" s="9">
         <f t="shared" si="2"/>
         <v>16.655999999999999</v>
       </c>
@@ -3776,7 +3771,7 @@
       <c r="H89" s="39">
         <v>1</v>
       </c>
-      <c r="I89" s="63">
+      <c r="I89" s="9">
         <f t="shared" si="3"/>
         <v>26.707999999999998</v>
       </c>
@@ -3794,7 +3789,7 @@
       <c r="D90" s="39">
         <v>0.01</v>
       </c>
-      <c r="E90" s="63">
+      <c r="E90" s="9">
         <f t="shared" si="2"/>
         <v>16.645999999999997</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v/>
       </c>
       <c r="H90" s="39"/>
-      <c r="I90" s="63">
+      <c r="I90" s="9">
         <f t="shared" si="3"/>
         <v>26.707999999999998</v>
       </c>
@@ -3824,7 +3819,7 @@
       <c r="D91" s="39">
         <v>1</v>
       </c>
-      <c r="E91" s="63">
+      <c r="E91" s="9">
         <f t="shared" si="2"/>
         <v>16.895999999999997</v>
       </c>
@@ -3834,7 +3829,7 @@
         <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
-      <c r="I91" s="63">
+      <c r="I91" s="9">
         <f t="shared" si="3"/>
         <v>27.957999999999998</v>
       </c>
@@ -3852,7 +3847,7 @@
       <c r="D92" s="39">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E92" s="63">
+      <c r="E92" s="9">
         <f t="shared" si="2"/>
         <v>16.887999999999998</v>
       </c>
@@ -3862,7 +3857,7 @@
         <v/>
       </c>
       <c r="H92" s="39"/>
-      <c r="I92" s="63">
+      <c r="I92" s="9">
         <f t="shared" si="3"/>
         <v>27.957999999999998</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>1.25</v>
       </c>
       <c r="D93" s="39"/>
-      <c r="E93" s="63">
+      <c r="E93" s="9">
         <f t="shared" si="2"/>
         <v>18.137999999999998</v>
       </c>
@@ -3888,7 +3883,7 @@
         <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
-      <c r="I93" s="63">
+      <c r="I93" s="9">
         <f t="shared" si="3"/>
         <v>29.207999999999998</v>
       </c>
@@ -3906,7 +3901,7 @@
         <v>1.25</v>
       </c>
       <c r="D94" s="39"/>
-      <c r="E94" s="63">
+      <c r="E94" s="9">
         <f t="shared" si="2"/>
         <v>19.387999999999998</v>
       </c>
@@ -3916,7 +3911,7 @@
         <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
-      <c r="I94" s="63">
+      <c r="I94" s="9">
         <f t="shared" si="3"/>
         <v>30.457999999999998</v>
       </c>
@@ -3932,7 +3927,7 @@
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="63">
+      <c r="E95" s="9">
         <f t="shared" si="2"/>
         <v>19.387999999999998</v>
       </c>
@@ -3944,7 +3939,7 @@
       <c r="H95" s="39">
         <v>1</v>
       </c>
-      <c r="I95" s="63">
+      <c r="I95" s="9">
         <f t="shared" si="3"/>
         <v>29.457999999999998</v>
       </c>
@@ -3960,7 +3955,7 @@
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="63">
+      <c r="E96" s="9">
         <f t="shared" si="2"/>
         <v>19.387999999999998</v>
       </c>
@@ -3972,7 +3967,7 @@
       <c r="H96" s="39">
         <v>1</v>
       </c>
-      <c r="I96" s="63">
+      <c r="I96" s="9">
         <f t="shared" si="3"/>
         <v>28.457999999999998</v>
       </c>
@@ -3994,7 +3989,7 @@
       <c r="D97" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E97" s="63">
+      <c r="E97" s="9">
         <f t="shared" si="2"/>
         <v>20.622999999999998</v>
       </c>
@@ -4004,7 +3999,7 @@
         <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
-      <c r="I97" s="63">
+      <c r="I97" s="9">
         <f t="shared" si="3"/>
         <v>29.707999999999998</v>
       </c>
@@ -4020,7 +4015,7 @@
         <v>1.25</v>
       </c>
       <c r="D98" s="39"/>
-      <c r="E98" s="63">
+      <c r="E98" s="9">
         <f t="shared" si="2"/>
         <v>21.872999999999998</v>
       </c>
@@ -4030,7 +4025,7 @@
         <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
-      <c r="I98" s="63">
+      <c r="I98" s="9">
         <f t="shared" si="3"/>
         <v>30.957999999999998</v>
       </c>
@@ -4044,7 +4039,7 @@
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="63">
+      <c r="E99" s="9">
         <f t="shared" si="2"/>
         <v>21.872999999999998</v>
       </c>
@@ -4054,7 +4049,7 @@
         <v/>
       </c>
       <c r="H99" s="39"/>
-      <c r="I99" s="63">
+      <c r="I99" s="9">
         <f t="shared" si="3"/>
         <v>30.957999999999998</v>
       </c>
@@ -4072,7 +4067,7 @@
         <v>1.25</v>
       </c>
       <c r="D100" s="39"/>
-      <c r="E100" s="63">
+      <c r="E100" s="9">
         <f t="shared" si="2"/>
         <v>23.122999999999998</v>
       </c>
@@ -4084,7 +4079,7 @@
       <c r="H100" s="39">
         <v>1</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="9">
         <f t="shared" si="3"/>
         <v>31.207999999999998</v>
       </c>
@@ -4138,10 +4133,10 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
@@ -4153,11 +4148,13 @@
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4193,7 +4190,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4211,7 +4208,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4229,7 +4226,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4247,7 +4244,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4283,7 +4280,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4316,6 +4313,24 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
